--- a/biology/Botanique/Abies_veitchii/Abies_veitchii.xlsx
+++ b/biology/Botanique/Abies_veitchii/Abies_veitchii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sapin de Veitch
 Le Sapin de Veitch(Abies veitchii) est une espèce de Sapin de la famille des Pinaceae. Il est originaire du Japon.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">John Lindley a nommé ce Sapin en l'honneur de John Gould Veitch qui a étudié la végétation du Japon.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sapin de Veitch est un arbre sempervirent, à la vie relativement courte (environ un siècle) pouvant atteindre une hauteur de 25 mètres. Son houppier prend la forme d'un cône étroit, mais peut chez les plus vieux individus plutôt adopter la forme d'une colonne. 
 Les branches de la partie inférieure du houppier sont courbés vers le haut, de sorte que la face inférieure des aiguilles soient visibles ; tandis que les branches de la partie supérieure sont horizontales ou légèrement courbées vers le bas.
@@ -577,7 +593,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sapin de Veitch est originaire de deux îles situées au centre du Japon. Son aire naturelle est une zone de 60 hectares sur les îles Honshu et Shikoku. On le voit rarement en Europe centrale mais il est de temps en temps planté dans les parcs.
 </t>
@@ -608,7 +626,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Sepin de Veitch fait partie de la section Balsamea au sein du genre Abies
 </t>
